--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>12.185309</v>
+        <v>0.431628</v>
       </c>
       <c r="H2">
-        <v>36.555927</v>
+        <v>0.863256</v>
       </c>
       <c r="I2">
-        <v>0.163981169114235</v>
+        <v>0.007268019072631291</v>
       </c>
       <c r="J2">
-        <v>0.1651175572641556</v>
+        <v>0.004902202074878029</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N2">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O2">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P2">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q2">
-        <v>182.8699098617265</v>
+        <v>4.876613642622</v>
       </c>
       <c r="R2">
-        <v>1097.219459170359</v>
+        <v>19.506454570488</v>
       </c>
       <c r="S2">
-        <v>0.01148355748946771</v>
+        <v>0.000420753175954328</v>
       </c>
       <c r="T2">
-        <v>0.008232552922370975</v>
+        <v>0.0002027634380020747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>12.185309</v>
+        <v>0.431628</v>
       </c>
       <c r="H3">
-        <v>36.555927</v>
+        <v>0.863256</v>
       </c>
       <c r="I3">
-        <v>0.163981169114235</v>
+        <v>0.007268019072631291</v>
       </c>
       <c r="J3">
-        <v>0.1651175572641556</v>
+        <v>0.004902202074878029</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>91.734342</v>
       </c>
       <c r="O3">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P3">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q3">
-        <v>372.6037677272259</v>
+        <v>13.198370189592</v>
       </c>
       <c r="R3">
-        <v>3353.433909545034</v>
+        <v>79.190221137552</v>
       </c>
       <c r="S3">
-        <v>0.0233981456584258</v>
+        <v>0.001138752540524402</v>
       </c>
       <c r="T3">
-        <v>0.0251611670767101</v>
+        <v>0.0008231573521457674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>12.185309</v>
+        <v>0.431628</v>
       </c>
       <c r="H4">
-        <v>36.555927</v>
+        <v>0.863256</v>
       </c>
       <c r="I4">
-        <v>0.163981169114235</v>
+        <v>0.007268019072631291</v>
       </c>
       <c r="J4">
-        <v>0.1651175572641556</v>
+        <v>0.004902202074878029</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N4">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O4">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P4">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q4">
-        <v>759.8192400473073</v>
+        <v>24.160621457572</v>
       </c>
       <c r="R4">
-        <v>6838.373160425765</v>
+        <v>144.963728745432</v>
       </c>
       <c r="S4">
-        <v>0.04771385260311269</v>
+        <v>0.002084573221559942</v>
       </c>
       <c r="T4">
-        <v>0.05130903255096702</v>
+        <v>0.001506852202167696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>12.185309</v>
+        <v>0.431628</v>
       </c>
       <c r="H5">
-        <v>36.555927</v>
+        <v>0.863256</v>
       </c>
       <c r="I5">
-        <v>0.163981169114235</v>
+        <v>0.007268019072631291</v>
       </c>
       <c r="J5">
-        <v>0.1651175572641556</v>
+        <v>0.004902202074878029</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N5">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O5">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P5">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q5">
-        <v>315.5633188249245</v>
+        <v>12.03346383993</v>
       </c>
       <c r="R5">
-        <v>1893.379912949547</v>
+        <v>48.13385535971999</v>
       </c>
       <c r="S5">
-        <v>0.01981621534145944</v>
+        <v>0.001038244671287889</v>
       </c>
       <c r="T5">
-        <v>0.01420622848531812</v>
+        <v>0.0005003362328999211</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>12.185309</v>
+        <v>0.431628</v>
       </c>
       <c r="H6">
-        <v>36.555927</v>
+        <v>0.863256</v>
       </c>
       <c r="I6">
-        <v>0.163981169114235</v>
+        <v>0.007268019072631291</v>
       </c>
       <c r="J6">
-        <v>0.1651175572641556</v>
+        <v>0.004902202074878029</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N6">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O6">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P6">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q6">
-        <v>108.9559842983043</v>
+        <v>5.091237428412001</v>
       </c>
       <c r="R6">
-        <v>980.603858684739</v>
+        <v>30.547424570472</v>
       </c>
       <c r="S6">
-        <v>0.006842034922296353</v>
+        <v>0.0004392708700191649</v>
       </c>
       <c r="T6">
-        <v>0.0073575738153673</v>
+        <v>0.0003175308360438253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>12.185309</v>
+        <v>0.431628</v>
       </c>
       <c r="H7">
-        <v>36.555927</v>
+        <v>0.863256</v>
       </c>
       <c r="I7">
-        <v>0.163981169114235</v>
+        <v>0.007268019072631291</v>
       </c>
       <c r="J7">
-        <v>0.1651175572641556</v>
+        <v>0.004902202074878029</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N7">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O7">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P7">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q7">
-        <v>871.505887104197</v>
+        <v>24.877491253</v>
       </c>
       <c r="R7">
-        <v>7843.552983937773</v>
+        <v>149.264947518</v>
       </c>
       <c r="S7">
-        <v>0.05472736309947299</v>
+        <v>0.002146424593285566</v>
       </c>
       <c r="T7">
-        <v>0.05885100241342212</v>
+        <v>0.001551562013618745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.116259</v>
+        <v>12.185309</v>
       </c>
       <c r="H8">
-        <v>72.348777</v>
+        <v>36.555927</v>
       </c>
       <c r="I8">
-        <v>0.3245393568174341</v>
+        <v>0.2051837652281727</v>
       </c>
       <c r="J8">
-        <v>0.3267884118843197</v>
+        <v>0.2075914226932564</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N8">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O8">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P8">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q8">
-        <v>361.9225503048015</v>
+        <v>137.6718936421285</v>
       </c>
       <c r="R8">
-        <v>2171.535301828809</v>
+        <v>826.0313618527709</v>
       </c>
       <c r="S8">
-        <v>0.02272740450466977</v>
+        <v>0.0118783013653768</v>
       </c>
       <c r="T8">
-        <v>0.01629325760283185</v>
+        <v>0.008586335267722282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.116259</v>
+        <v>12.185309</v>
       </c>
       <c r="H9">
-        <v>72.348777</v>
+        <v>36.555927</v>
       </c>
       <c r="I9">
-        <v>0.3245393568174341</v>
+        <v>0.2051837652281727</v>
       </c>
       <c r="J9">
-        <v>0.3267884118843197</v>
+        <v>0.2075914226932564</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>91.734342</v>
       </c>
       <c r="O9">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P9">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q9">
-        <v>737.4297169555259</v>
+        <v>372.6037677272259</v>
       </c>
       <c r="R9">
-        <v>6636.867452599734</v>
+        <v>3353.433909545034</v>
       </c>
       <c r="S9">
-        <v>0.04630787293275223</v>
+        <v>0.03214817291933068</v>
       </c>
       <c r="T9">
-        <v>0.04979711404644836</v>
+        <v>0.03485788697043978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.116259</v>
+        <v>12.185309</v>
       </c>
       <c r="H10">
-        <v>72.348777</v>
+        <v>36.555927</v>
       </c>
       <c r="I10">
-        <v>0.3245393568174341</v>
+        <v>0.2051837652281727</v>
       </c>
       <c r="J10">
-        <v>0.3267884118843197</v>
+        <v>0.2075914226932564</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N10">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O10">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P10">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q10">
-        <v>1503.777834945674</v>
+        <v>682.0795640981241</v>
       </c>
       <c r="R10">
-        <v>13534.00051451107</v>
+        <v>6138.716076883118</v>
       </c>
       <c r="S10">
-        <v>0.09443171504838242</v>
+        <v>0.05884967805108416</v>
       </c>
       <c r="T10">
-        <v>0.1015470283140585</v>
+        <v>0.06381001591906867</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.116259</v>
+        <v>12.185309</v>
       </c>
       <c r="H11">
-        <v>72.348777</v>
+        <v>36.555927</v>
       </c>
       <c r="I11">
-        <v>0.3245393568174341</v>
+        <v>0.2051837652281727</v>
       </c>
       <c r="J11">
-        <v>0.3267884118843197</v>
+        <v>0.2075914226932564</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N11">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O11">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P11">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q11">
-        <v>624.5394948688995</v>
+        <v>339.7172454749775</v>
       </c>
       <c r="R11">
-        <v>3747.236969213397</v>
+        <v>2038.303472849865</v>
       </c>
       <c r="S11">
-        <v>0.03921878235294724</v>
+        <v>0.02931073085445418</v>
       </c>
       <c r="T11">
-        <v>0.02811591282298294</v>
+        <v>0.02118752120500119</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.116259</v>
+        <v>12.185309</v>
       </c>
       <c r="H12">
-        <v>72.348777</v>
+        <v>36.555927</v>
       </c>
       <c r="I12">
-        <v>0.3245393568174341</v>
+        <v>0.2051837652281727</v>
       </c>
       <c r="J12">
-        <v>0.3267884118843197</v>
+        <v>0.2075914226932564</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N12">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O12">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P12">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q12">
-        <v>215.637595808021</v>
+        <v>143.730947152561</v>
       </c>
       <c r="R12">
-        <v>1940.738362272189</v>
+        <v>1293.578524373049</v>
       </c>
       <c r="S12">
-        <v>0.01354124760177553</v>
+        <v>0.01240107519874142</v>
       </c>
       <c r="T12">
-        <v>0.0145615639080647</v>
+        <v>0.01344634043976184</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.116259</v>
+        <v>12.185309</v>
       </c>
       <c r="H13">
-        <v>72.348777</v>
+        <v>36.555927</v>
       </c>
       <c r="I13">
-        <v>0.3245393568174341</v>
+        <v>0.2051837652281727</v>
       </c>
       <c r="J13">
-        <v>0.3267884118843197</v>
+        <v>0.2075914226932564</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N13">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O13">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P13">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q13">
-        <v>1724.819755775547</v>
+        <v>702.3175467360833</v>
       </c>
       <c r="R13">
-        <v>15523.37780197992</v>
+        <v>6320.85792062475</v>
       </c>
       <c r="S13">
-        <v>0.1083123343769069</v>
+        <v>0.06059580683918546</v>
       </c>
       <c r="T13">
-        <v>0.1164735351899334</v>
+        <v>0.06570332289126264</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.534254</v>
+        <v>17.02618666666667</v>
       </c>
       <c r="H14">
-        <v>3.068508</v>
+        <v>51.07856</v>
       </c>
       <c r="I14">
-        <v>0.02064689247012049</v>
+        <v>0.2866974557431722</v>
       </c>
       <c r="J14">
-        <v>0.01385998350980183</v>
+        <v>0.2900616072332911</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N14">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O14">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P14">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q14">
-        <v>23.025176520759</v>
+        <v>192.3650323438133</v>
       </c>
       <c r="R14">
-        <v>92.100706083036</v>
+        <v>1154.19019406288</v>
       </c>
       <c r="S14">
-        <v>0.001445896366882924</v>
+        <v>0.01659721360614055</v>
       </c>
       <c r="T14">
-        <v>0.0006910412777309332</v>
+        <v>0.01199744274444111</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.534254</v>
+        <v>17.02618666666667</v>
       </c>
       <c r="H15">
-        <v>3.068508</v>
+        <v>51.07856</v>
       </c>
       <c r="I15">
-        <v>0.02064689247012049</v>
+        <v>0.2866974557431722</v>
       </c>
       <c r="J15">
-        <v>0.01385998350980183</v>
+        <v>0.2900616072332911</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>91.734342</v>
       </c>
       <c r="O15">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P15">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q15">
-        <v>46.914593716956</v>
+        <v>520.6286768786133</v>
       </c>
       <c r="R15">
-        <v>281.487562301736</v>
+        <v>4685.65809190752</v>
       </c>
       <c r="S15">
-        <v>0.002946063868304236</v>
+        <v>0.04491973023554861</v>
       </c>
       <c r="T15">
-        <v>0.002112030764921419</v>
+        <v>0.04870593682640922</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.534254</v>
+        <v>17.02618666666667</v>
       </c>
       <c r="H16">
-        <v>3.068508</v>
+        <v>51.07856</v>
       </c>
       <c r="I16">
-        <v>0.02064689247012049</v>
+        <v>0.2866974557431722</v>
       </c>
       <c r="J16">
-        <v>0.01385998350980183</v>
+        <v>0.2900616072332911</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N16">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O16">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P16">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q16">
-        <v>95.668949250244</v>
+        <v>953.0504298129244</v>
       </c>
       <c r="R16">
-        <v>574.013695501464</v>
+        <v>8577.453868316319</v>
       </c>
       <c r="S16">
-        <v>0.006007658009471574</v>
+        <v>0.08222898604959425</v>
       </c>
       <c r="T16">
-        <v>0.004306885087468927</v>
+        <v>0.08915992546771156</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.534254</v>
+        <v>17.02618666666667</v>
       </c>
       <c r="H17">
-        <v>3.068508</v>
+        <v>51.07856</v>
       </c>
       <c r="I17">
-        <v>0.02064689247012049</v>
+        <v>0.2866974557431722</v>
       </c>
       <c r="J17">
-        <v>0.01385998350980183</v>
+        <v>0.2900616072332911</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N17">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O17">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P17">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q17">
-        <v>39.732622632747</v>
+        <v>474.6772720612</v>
       </c>
       <c r="R17">
-        <v>158.930490530988</v>
+        <v>2848.0636323672</v>
       </c>
       <c r="S17">
-        <v>0.002495062509493646</v>
+        <v>0.0409550529136654</v>
       </c>
       <c r="T17">
-        <v>0.001192472174403525</v>
+        <v>0.02960472246048981</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.534254</v>
+        <v>17.02618666666667</v>
       </c>
       <c r="H18">
-        <v>3.068508</v>
+        <v>51.07856</v>
       </c>
       <c r="I18">
-        <v>0.02064689247012049</v>
+        <v>0.2866974557431722</v>
       </c>
       <c r="J18">
-        <v>0.01385998350980183</v>
+        <v>0.2900616072332911</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N18">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O18">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P18">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q18">
-        <v>13.718663575426</v>
+        <v>200.8311759674133</v>
       </c>
       <c r="R18">
-        <v>82.31198145255601</v>
+        <v>1807.48058370672</v>
       </c>
       <c r="S18">
-        <v>0.0008614815962133477</v>
+        <v>0.01732767065661953</v>
       </c>
       <c r="T18">
-        <v>0.0006175954480116202</v>
+        <v>0.01878819013214469</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.534254</v>
+        <v>17.02618666666667</v>
       </c>
       <c r="H19">
-        <v>3.068508</v>
+        <v>51.07856</v>
       </c>
       <c r="I19">
-        <v>0.02064689247012049</v>
+        <v>0.2866974557431722</v>
       </c>
       <c r="J19">
-        <v>0.01385998350980183</v>
+        <v>0.2900616072332911</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N19">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O19">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P19">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q19">
-        <v>109.731430964382</v>
+        <v>981.3283889644446</v>
       </c>
       <c r="R19">
-        <v>658.3885857862921</v>
+        <v>8831.955500680002</v>
       </c>
       <c r="S19">
-        <v>0.006890730119754768</v>
+        <v>0.08466880228160389</v>
       </c>
       <c r="T19">
-        <v>0.00493995875726541</v>
+        <v>0.09180538960209471</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3687476666666667</v>
+        <v>1.634704</v>
       </c>
       <c r="H20">
-        <v>1.106243</v>
+        <v>3.269408</v>
       </c>
       <c r="I20">
-        <v>0.00496234223425489</v>
+        <v>0.02752615643588151</v>
       </c>
       <c r="J20">
-        <v>0.004996731225023273</v>
+        <v>0.01856610169083427</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N20">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O20">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P20">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q20">
-        <v>5.533946867088501</v>
+        <v>18.469190664296</v>
       </c>
       <c r="R20">
-        <v>33.203681202531</v>
+        <v>73.876762657184</v>
       </c>
       <c r="S20">
-        <v>0.0003475115017004283</v>
+        <v>0.001593517797143012</v>
       </c>
       <c r="T20">
-        <v>0.0002491307098436441</v>
+        <v>0.0007679256284479772</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3687476666666667</v>
+        <v>1.634704</v>
       </c>
       <c r="H21">
-        <v>1.106243</v>
+        <v>3.269408</v>
       </c>
       <c r="I21">
-        <v>0.00496234223425489</v>
+        <v>0.02752615643588151</v>
       </c>
       <c r="J21">
-        <v>0.004996731225023273</v>
+        <v>0.01856610169083427</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>91.734342</v>
       </c>
       <c r="O21">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P21">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q21">
-        <v>11.27560818856733</v>
+        <v>49.986165268256</v>
       </c>
       <c r="R21">
-        <v>101.480473697106</v>
+        <v>299.916991609536</v>
       </c>
       <c r="S21">
-        <v>0.0007080667068739342</v>
+        <v>0.004312795585563037</v>
       </c>
       <c r="T21">
-        <v>0.0007614186599738262</v>
+        <v>0.003117542458279108</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3687476666666667</v>
+        <v>1.634704</v>
       </c>
       <c r="H22">
-        <v>1.106243</v>
+        <v>3.269408</v>
       </c>
       <c r="I22">
-        <v>0.00496234223425489</v>
+        <v>0.02752615643588151</v>
       </c>
       <c r="J22">
-        <v>0.004996731225023273</v>
+        <v>0.01856610169083427</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N22">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O22">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P22">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q22">
-        <v>22.99339080001045</v>
+        <v>91.50348109756267</v>
       </c>
       <c r="R22">
-        <v>206.940517200094</v>
+        <v>549.020886585376</v>
       </c>
       <c r="S22">
-        <v>0.001443900340572001</v>
+        <v>0.007894900663480876</v>
       </c>
       <c r="T22">
-        <v>0.00155269645046286</v>
+        <v>0.005706898816324108</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3687476666666667</v>
+        <v>1.634704</v>
       </c>
       <c r="H23">
-        <v>1.106243</v>
+        <v>3.269408</v>
       </c>
       <c r="I23">
-        <v>0.00496234223425489</v>
+        <v>0.02752615643588151</v>
       </c>
       <c r="J23">
-        <v>0.004996731225023273</v>
+        <v>0.01856610169083427</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N23">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O23">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P23">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q23">
-        <v>9.549469570470501</v>
+        <v>45.57431740524</v>
       </c>
       <c r="R23">
-        <v>57.296817422823</v>
+        <v>182.29726962096</v>
       </c>
       <c r="S23">
-        <v>0.0005996715527958603</v>
+        <v>0.00393214230108565</v>
       </c>
       <c r="T23">
-        <v>0.0004299040431469232</v>
+        <v>0.001894922575149047</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3687476666666667</v>
+        <v>1.634704</v>
       </c>
       <c r="H24">
-        <v>1.106243</v>
+        <v>3.269408</v>
       </c>
       <c r="I24">
-        <v>0.00496234223425489</v>
+        <v>0.02752615643588151</v>
       </c>
       <c r="J24">
-        <v>0.004996731225023273</v>
+        <v>0.01856610169083427</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N24">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O24">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P24">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q24">
-        <v>3.297188850883445</v>
+        <v>19.282034968016</v>
       </c>
       <c r="R24">
-        <v>29.674699657951</v>
+        <v>115.692209808096</v>
       </c>
       <c r="S24">
-        <v>0.0002070513281894311</v>
+        <v>0.001663649828796577</v>
       </c>
       <c r="T24">
-        <v>0.0002226523904108182</v>
+        <v>0.001202584002437714</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3687476666666667</v>
+        <v>1.634704</v>
       </c>
       <c r="H25">
-        <v>1.106243</v>
+        <v>3.269408</v>
       </c>
       <c r="I25">
-        <v>0.00496234223425489</v>
+        <v>0.02752615643588151</v>
       </c>
       <c r="J25">
-        <v>0.004996731225023273</v>
+        <v>0.01856610169083427</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N25">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O25">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P25">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q25">
-        <v>26.37321403633967</v>
+        <v>94.21848087066668</v>
       </c>
       <c r="R25">
-        <v>237.358926327057</v>
+        <v>565.3108852240001</v>
       </c>
       <c r="S25">
-        <v>0.001656140804123236</v>
+        <v>0.008129150259812356</v>
       </c>
       <c r="T25">
-        <v>0.001780928971185201</v>
+        <v>0.005876228210196319</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>36.10462733333333</v>
+        <v>6.211329999999999</v>
       </c>
       <c r="H26">
-        <v>108.313882</v>
+        <v>18.63399</v>
       </c>
       <c r="I26">
-        <v>0.4858702393639557</v>
+        <v>0.1045902140417371</v>
       </c>
       <c r="J26">
-        <v>0.4892373161166996</v>
+        <v>0.1058174914987633</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N26">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O26">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P26">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q26">
-        <v>541.836891131599</v>
+        <v>70.17676475304499</v>
       </c>
       <c r="R26">
-        <v>3251.021346789594</v>
+        <v>421.0605885182699</v>
       </c>
       <c r="S26">
-        <v>0.03402536313343721</v>
+        <v>0.006054836165402607</v>
       </c>
       <c r="T26">
-        <v>0.02439275485456695</v>
+        <v>0.004376791908884825</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.10462733333333</v>
+        <v>6.211329999999999</v>
       </c>
       <c r="H27">
-        <v>108.313882</v>
+        <v>18.63399</v>
       </c>
       <c r="I27">
-        <v>0.4858702393639557</v>
+        <v>0.1045902140417371</v>
       </c>
       <c r="J27">
-        <v>0.4892373161166996</v>
+        <v>0.1058174914987633</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>91.734342</v>
       </c>
       <c r="O27">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P27">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q27">
-        <v>1104.011410526183</v>
+        <v>189.93075683162</v>
       </c>
       <c r="R27">
-        <v>9936.102694735642</v>
+        <v>1709.37681148458</v>
       </c>
       <c r="S27">
-        <v>0.06932785449170922</v>
+        <v>0.01638718483864678</v>
       </c>
       <c r="T27">
-        <v>0.07455162282518679</v>
+        <v>0.01776843238658139</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.10462733333333</v>
+        <v>6.211329999999999</v>
       </c>
       <c r="H28">
-        <v>108.313882</v>
+        <v>18.63399</v>
       </c>
       <c r="I28">
-        <v>0.4858702393639557</v>
+        <v>0.1045902140417371</v>
       </c>
       <c r="J28">
-        <v>0.4892373161166996</v>
+        <v>0.1058174914987633</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N28">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O28">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P28">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q28">
-        <v>2251.316770268573</v>
+        <v>347.6827102923366</v>
       </c>
       <c r="R28">
-        <v>20261.85093241715</v>
+        <v>3129.144392631029</v>
       </c>
       <c r="S28">
-        <v>0.1413744096988415</v>
+        <v>0.02999798944524431</v>
       </c>
       <c r="T28">
-        <v>0.1520267971117132</v>
+        <v>0.03252646823963092</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.10462733333333</v>
+        <v>6.211329999999999</v>
       </c>
       <c r="H29">
-        <v>108.313882</v>
+        <v>18.63399</v>
       </c>
       <c r="I29">
-        <v>0.4858702393639557</v>
+        <v>0.1045902140417371</v>
       </c>
       <c r="J29">
-        <v>0.4892373161166996</v>
+        <v>0.1058174914987633</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N29">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O29">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P29">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q29">
-        <v>935.002635242467</v>
+        <v>173.167206374175</v>
       </c>
       <c r="R29">
-        <v>5610.015811454801</v>
+        <v>1039.00323824505</v>
       </c>
       <c r="S29">
-        <v>0.05871472525321071</v>
+        <v>0.01494082931160768</v>
       </c>
       <c r="T29">
-        <v>0.04209253825853699</v>
+        <v>0.0108001106977476</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.10462733333333</v>
+        <v>6.211329999999999</v>
       </c>
       <c r="H30">
-        <v>108.313882</v>
+        <v>18.63399</v>
       </c>
       <c r="I30">
-        <v>0.4858702393639557</v>
+        <v>0.1045902140417371</v>
       </c>
       <c r="J30">
-        <v>0.4892373161166996</v>
+        <v>0.1058174914987633</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N30">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O30">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P30">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q30">
-        <v>322.8326182640749</v>
+        <v>73.26530201057</v>
       </c>
       <c r="R30">
-        <v>2905.493564376674</v>
+        <v>659.3877180951299</v>
       </c>
       <c r="S30">
-        <v>0.02027270059964521</v>
+        <v>0.00632131449552888</v>
       </c>
       <c r="T30">
-        <v>0.02180022358738115</v>
+        <v>0.006854127192318708</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.211329999999999</v>
+      </c>
+      <c r="H31">
+        <v>18.63399</v>
+      </c>
+      <c r="I31">
+        <v>0.1045902140417371</v>
+      </c>
+      <c r="J31">
+        <v>0.1058174914987633</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>57.63641666666667</v>
+      </c>
+      <c r="N31">
+        <v>172.90925</v>
+      </c>
+      <c r="O31">
+        <v>0.2953245680612229</v>
+      </c>
+      <c r="P31">
+        <v>0.3165030714604617</v>
+      </c>
+      <c r="Q31">
+        <v>357.9988039341666</v>
+      </c>
+      <c r="R31">
+        <v>3221.9892354075</v>
+      </c>
+      <c r="S31">
+        <v>0.03088805978530686</v>
+      </c>
+      <c r="T31">
+        <v>0.03349156107359989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>21.89813833333334</v>
+      </c>
+      <c r="H32">
+        <v>65.69441500000001</v>
+      </c>
+      <c r="I32">
+        <v>0.3687343894784052</v>
+      </c>
+      <c r="J32">
+        <v>0.373061174808977</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>11.2981865</v>
+      </c>
+      <c r="N32">
+        <v>22.596373</v>
+      </c>
+      <c r="O32">
+        <v>0.05789103905061711</v>
+      </c>
+      <c r="P32">
+        <v>0.04136170539381929</v>
+      </c>
+      <c r="Q32">
+        <v>247.4092508927992</v>
+      </c>
+      <c r="R32">
+        <v>1484.455505356795</v>
+      </c>
+      <c r="S32">
+        <v>0.02134641694059982</v>
+      </c>
+      <c r="T32">
+        <v>0.01543044640632103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>21.89813833333334</v>
+      </c>
+      <c r="H33">
+        <v>65.69441500000001</v>
+      </c>
+      <c r="I33">
+        <v>0.3687343894784052</v>
+      </c>
+      <c r="J33">
+        <v>0.373061174808977</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>30.578114</v>
+      </c>
+      <c r="N33">
+        <v>91.734342</v>
+      </c>
+      <c r="O33">
+        <v>0.1566799053696115</v>
+      </c>
+      <c r="P33">
+        <v>0.1679158344704198</v>
+      </c>
+      <c r="Q33">
+        <v>669.6037703444367</v>
+      </c>
+      <c r="R33">
+        <v>6026.43393309993</v>
+      </c>
+      <c r="S33">
+        <v>0.05777326924999799</v>
+      </c>
+      <c r="T33">
+        <v>0.06264287847656452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>21.89813833333334</v>
+      </c>
+      <c r="H34">
+        <v>65.69441500000001</v>
+      </c>
+      <c r="I34">
+        <v>0.3687343894784052</v>
+      </c>
+      <c r="J34">
+        <v>0.373061174808977</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>55.97556566666666</v>
+      </c>
+      <c r="N34">
+        <v>167.926697</v>
+      </c>
+      <c r="O34">
+        <v>0.286814495219156</v>
+      </c>
+      <c r="P34">
+        <v>0.3073827188580732</v>
+      </c>
+      <c r="Q34">
+        <v>1225.76068025525</v>
+      </c>
+      <c r="R34">
+        <v>11031.84612229725</v>
+      </c>
+      <c r="S34">
+        <v>0.1057583677881924</v>
+      </c>
+      <c r="T34">
+        <v>0.1146725582131703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>21.89813833333334</v>
+      </c>
+      <c r="H35">
+        <v>65.69441500000001</v>
+      </c>
+      <c r="I35">
+        <v>0.3687343894784052</v>
+      </c>
+      <c r="J35">
+        <v>0.373061174808977</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>27.8792475</v>
+      </c>
+      <c r="N35">
+        <v>55.758495</v>
+      </c>
+      <c r="O35">
+        <v>0.142851120905494</v>
+      </c>
+      <c r="P35">
+        <v>0.102063567608516</v>
+      </c>
+      <c r="Q35">
+        <v>610.5036183842375</v>
+      </c>
+      <c r="R35">
+        <v>3663.021710305425</v>
+      </c>
+      <c r="S35">
+        <v>0.05267412085339316</v>
+      </c>
+      <c r="T35">
+        <v>0.03807595443722844</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>36.10462733333333</v>
-      </c>
-      <c r="H31">
-        <v>108.313882</v>
-      </c>
-      <c r="I31">
-        <v>0.4858702393639557</v>
-      </c>
-      <c r="J31">
-        <v>0.4892373161166996</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>71.521033</v>
-      </c>
-      <c r="N31">
-        <v>214.563099</v>
-      </c>
-      <c r="O31">
-        <v>0.3337417545873698</v>
-      </c>
-      <c r="P31">
-        <v>0.3564188048111206</v>
-      </c>
-      <c r="Q31">
-        <v>2582.240242960036</v>
-      </c>
-      <c r="R31">
-        <v>23240.16218664032</v>
-      </c>
-      <c r="S31">
-        <v>0.1621551861871119</v>
-      </c>
-      <c r="T31">
-        <v>0.1743733794793145</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>21.89813833333334</v>
+      </c>
+      <c r="H36">
+        <v>65.69441500000001</v>
+      </c>
+      <c r="I36">
+        <v>0.3687343894784052</v>
+      </c>
+      <c r="J36">
+        <v>0.373061174808977</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.795429</v>
+      </c>
+      <c r="N36">
+        <v>35.386287</v>
+      </c>
+      <c r="O36">
+        <v>0.06043887139389862</v>
+      </c>
+      <c r="P36">
+        <v>0.0647731022087101</v>
+      </c>
+      <c r="Q36">
+        <v>258.2979359430117</v>
+      </c>
+      <c r="R36">
+        <v>2324.681423487105</v>
+      </c>
+      <c r="S36">
+        <v>0.02228589034419306</v>
+      </c>
+      <c r="T36">
+        <v>0.02416432960600334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>21.89813833333334</v>
+      </c>
+      <c r="H37">
+        <v>65.69441500000001</v>
+      </c>
+      <c r="I37">
+        <v>0.3687343894784052</v>
+      </c>
+      <c r="J37">
+        <v>0.373061174808977</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>57.63641666666667</v>
+      </c>
+      <c r="N37">
+        <v>172.90925</v>
+      </c>
+      <c r="O37">
+        <v>0.2953245680612229</v>
+      </c>
+      <c r="P37">
+        <v>0.3165030714604617</v>
+      </c>
+      <c r="Q37">
+        <v>1262.130225204306</v>
+      </c>
+      <c r="R37">
+        <v>11359.17202683875</v>
+      </c>
+      <c r="S37">
+        <v>0.1088963243020287</v>
+      </c>
+      <c r="T37">
+        <v>0.1180750076696895</v>
       </c>
     </row>
   </sheetData>
